--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -857,7 +857,7 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>Metadata async resopnse parameters.</t>
+    <t>Metadata async response parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameter-async-response}

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Contains a collection of resources</t>
@@ -1602,13 +1606,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1674,13 +1678,13 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1688,10 +1692,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1702,7 +1706,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1711,19 +1715,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1773,13 +1777,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1802,10 +1806,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1816,7 +1820,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1825,16 +1829,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1885,19 +1889,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1914,10 +1918,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1928,28 +1932,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1999,19 +2003,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2028,10 +2032,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2042,7 +2046,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2054,16 +2058,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2089,13 +2093,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2113,19 +2117,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2142,10 +2146,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2156,7 +2160,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2165,19 +2169,19 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2227,19 +2231,19 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2248,18 +2252,18 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2267,31 +2271,31 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2299,7 +2303,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -2317,13 +2321,13 @@
         <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>76</v>
@@ -2341,19 +2345,19 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2365,15 +2369,15 @@
         <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2384,7 +2388,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -2393,19 +2397,19 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2455,19 +2459,19 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2476,18 +2480,18 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2498,7 +2502,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2507,19 +2511,19 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2569,19 +2573,19 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2598,10 +2602,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2621,19 +2625,19 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2683,7 +2687,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2695,7 +2699,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2712,10 +2716,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2726,7 +2730,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2738,13 +2742,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2795,13 +2799,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2813,7 +2817,7 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2824,14 +2828,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2850,16 +2854,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2909,7 +2913,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2921,13 +2925,13 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2938,14 +2942,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2958,25 +2962,25 @@
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3025,7 +3029,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3037,13 +3041,13 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3054,10 +3058,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3065,10 +3069,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3077,16 +3081,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3137,19 +3141,19 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3166,10 +3170,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3177,10 +3181,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3189,16 +3193,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3249,19 +3253,19 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3278,10 +3282,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3289,10 +3293,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3301,16 +3305,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3349,19 +3353,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3390,10 +3394,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3404,7 +3408,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3416,13 +3420,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3473,13 +3477,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3491,7 +3495,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3502,14 +3506,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3528,16 +3532,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3587,7 +3591,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3599,13 +3603,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3616,14 +3620,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3636,25 +3640,25 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3703,7 +3707,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3715,13 +3719,13 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3732,10 +3736,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3755,16 +3759,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3815,7 +3819,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3827,7 +3831,7 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3844,10 +3848,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3855,31 +3859,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3929,19 +3933,19 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3958,10 +3962,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3969,28 +3973,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4041,13 +4045,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4070,10 +4074,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4084,7 +4088,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4093,16 +4097,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4153,19 +4157,19 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4182,10 +4186,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4196,7 +4200,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4208,13 +4212,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4265,13 +4269,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4283,7 +4287,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4294,14 +4298,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4320,16 +4324,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4379,7 +4383,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4391,13 +4395,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4408,14 +4412,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4428,25 +4432,25 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4495,7 +4499,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4507,13 +4511,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4524,10 +4528,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4538,7 +4542,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4547,19 +4551,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4585,13 +4589,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4609,19 +4613,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4638,10 +4642,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4652,7 +4656,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4661,19 +4665,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4723,19 +4727,19 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4752,10 +4756,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4766,25 +4770,25 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4835,19 +4839,19 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4864,10 +4868,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4878,7 +4882,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4890,13 +4894,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4947,13 +4951,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4965,7 +4969,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4976,14 +4980,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5002,16 +5006,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5061,7 +5065,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5073,13 +5077,13 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5090,14 +5094,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5110,25 +5114,25 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5177,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5189,13 +5193,13 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5206,10 +5210,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5217,10 +5221,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5229,16 +5233,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5265,13 +5269,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5289,19 +5293,19 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5318,10 +5322,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5329,10 +5333,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5341,19 +5345,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5403,19 +5407,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5432,10 +5436,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5446,7 +5450,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5455,16 +5459,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5515,19 +5519,19 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5544,10 +5548,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5558,7 +5562,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5567,16 +5571,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5627,19 +5631,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5656,10 +5660,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5670,7 +5674,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5679,16 +5683,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5739,19 +5743,19 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5768,10 +5772,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5782,7 +5786,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5791,16 +5795,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5851,19 +5855,19 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5880,10 +5884,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5894,7 +5898,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5903,16 +5907,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5963,19 +5967,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5992,10 +5996,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6006,7 +6010,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6018,13 +6022,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6075,13 +6079,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6093,7 +6097,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6104,14 +6108,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6130,16 +6134,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6189,7 +6193,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6201,13 +6205,13 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6218,14 +6222,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6238,25 +6242,25 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6305,7 +6309,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6317,13 +6321,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6334,10 +6338,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6345,10 +6349,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6357,16 +6361,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6417,19 +6421,19 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6446,10 +6450,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6460,7 +6464,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6469,16 +6473,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6529,19 +6533,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6558,10 +6562,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6572,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6581,19 +6585,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6643,19 +6647,19 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6672,10 +6676,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6686,7 +6690,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6695,19 +6699,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6757,19 +6761,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6786,10 +6790,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6800,7 +6804,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6809,19 +6813,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6871,13 +6875,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -6900,41 +6904,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6985,7 +6989,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6997,7 +7001,7 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7014,10 +7018,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7028,7 +7032,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7040,13 +7044,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7097,13 +7101,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7115,7 +7119,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7126,14 +7130,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7152,16 +7156,16 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7211,7 +7215,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7223,13 +7227,13 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7240,14 +7244,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7260,25 +7264,25 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7339,13 +7343,13 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7356,10 +7360,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7379,16 +7383,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7439,7 +7443,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7451,7 +7455,7 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7468,10 +7472,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7482,7 +7486,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7491,19 +7495,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7553,19 +7557,19 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -7582,10 +7586,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7596,7 +7600,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7605,16 +7609,16 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7665,13 +7669,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7694,10 +7698,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7708,7 +7712,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7717,16 +7721,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7777,19 +7781,19 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7806,10 +7810,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7820,7 +7824,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7832,13 +7836,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7889,13 +7893,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -7907,7 +7911,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -7918,14 +7922,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7944,16 +7948,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8003,7 +8007,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8015,13 +8019,13 @@
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8032,14 +8036,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8052,25 +8056,25 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8119,7 +8123,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8131,13 +8135,13 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8148,10 +8152,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8162,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8171,19 +8175,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8209,13 +8213,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8233,19 +8237,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8262,10 +8266,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8276,7 +8280,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8285,19 +8289,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8347,19 +8351,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8376,10 +8380,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8390,7 +8394,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8399,16 +8403,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8459,19 +8463,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8488,10 +8492,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8502,7 +8506,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8514,13 +8518,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8571,13 +8575,13 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
@@ -8589,7 +8593,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8600,14 +8604,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8626,16 +8630,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8685,7 +8689,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8697,13 +8701,13 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8714,14 +8718,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8734,25 +8738,25 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8801,7 +8805,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8813,13 +8817,13 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8830,10 +8834,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8841,10 +8845,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8853,16 +8857,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8889,13 +8893,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -8913,19 +8917,19 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -8942,10 +8946,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8953,10 +8957,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -8965,19 +8969,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9027,19 +9031,19 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9056,10 +9060,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9070,7 +9074,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9079,16 +9083,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9139,19 +9143,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9168,10 +9172,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9182,7 +9186,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9191,16 +9195,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9251,19 +9255,19 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -9280,10 +9284,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9294,7 +9298,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9303,16 +9307,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9363,19 +9367,19 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
@@ -9392,10 +9396,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9406,7 +9410,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9415,16 +9419,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9475,19 +9479,19 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
@@ -9504,10 +9508,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9518,7 +9522,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9527,16 +9531,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9587,19 +9591,19 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -9616,10 +9620,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9630,7 +9634,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9642,13 +9646,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9699,13 +9703,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
@@ -9717,7 +9721,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9728,14 +9732,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9754,16 +9758,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9813,7 +9817,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -9825,13 +9829,13 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9842,14 +9846,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9862,25 +9866,25 @@
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9929,7 +9933,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -9941,13 +9945,13 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -9958,10 +9962,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9969,10 +9973,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -9981,16 +9985,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10041,19 +10045,19 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
@@ -10070,10 +10074,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10084,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10093,16 +10097,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10153,19 +10157,19 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10182,10 +10186,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10196,7 +10200,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10205,19 +10209,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10267,19 +10271,19 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -10296,10 +10300,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10310,7 +10314,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10319,19 +10323,19 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10381,19 +10385,19 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10410,10 +10414,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10424,7 +10428,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10433,19 +10437,19 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10495,13 +10499,13 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
@@ -10524,41 +10528,41 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10609,7 +10613,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -10621,7 +10625,7 @@
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10638,10 +10642,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10652,7 +10656,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10664,13 +10668,13 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10721,13 +10725,13 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
@@ -10739,7 +10743,7 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10750,14 +10754,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10776,16 +10780,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10835,7 +10839,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -10847,13 +10851,13 @@
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -10864,14 +10868,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10884,25 +10888,25 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -10951,7 +10955,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -10963,13 +10967,13 @@
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -10980,10 +10984,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11003,16 +11007,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11063,7 +11067,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11075,7 +11079,7 @@
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -11092,10 +11096,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11106,7 +11110,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11115,19 +11119,19 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11177,19 +11181,19 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
@@ -11206,10 +11210,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11220,7 +11224,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11232,16 +11236,16 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11291,13 +11295,13 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
@@ -11306,10 +11310,10 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -11320,10 +11324,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11334,7 +11338,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -11343,16 +11347,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11403,19 +11407,19 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -11432,10 +11436,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11446,7 +11450,7 @@
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -11458,13 +11462,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11515,13 +11519,13 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>76</v>
@@ -11533,7 +11537,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -11544,14 +11548,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11570,16 +11574,16 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11629,7 +11633,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -11641,13 +11645,13 @@
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -11658,14 +11662,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11678,25 +11682,25 @@
         <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>76</v>
@@ -11745,7 +11749,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11757,13 +11761,13 @@
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -11774,10 +11778,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11788,7 +11792,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -11797,19 +11801,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11835,13 +11839,13 @@
         <v>76</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>76</v>
@@ -11859,19 +11863,19 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>76</v>
@@ -11888,10 +11892,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11902,7 +11906,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -11911,19 +11915,19 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11973,19 +11977,19 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>76</v>
@@ -12002,10 +12006,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12016,7 +12020,7 @@
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>76</v>
@@ -12025,16 +12029,16 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12085,19 +12089,19 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>76</v>
@@ -12114,10 +12118,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12128,7 +12132,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -12140,13 +12144,13 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12197,13 +12201,13 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
@@ -12215,7 +12219,7 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12226,14 +12230,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12252,16 +12256,16 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12311,7 +12315,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -12323,13 +12327,13 @@
         <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -12340,14 +12344,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12360,25 +12364,25 @@
         <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>76</v>
@@ -12427,7 +12431,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -12439,13 +12443,13 @@
         <v>76</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -12456,10 +12460,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12467,10 +12471,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>76</v>
@@ -12479,16 +12483,16 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12515,13 +12519,13 @@
         <v>76</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>76</v>
@@ -12539,19 +12543,19 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
@@ -12568,10 +12572,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12579,10 +12583,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -12591,19 +12595,19 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12653,19 +12657,19 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
@@ -12682,10 +12686,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12696,7 +12700,7 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12705,16 +12709,16 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12765,19 +12769,19 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>76</v>
@@ -12794,10 +12798,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12808,7 +12812,7 @@
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>76</v>
@@ -12817,16 +12821,16 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12877,19 +12881,19 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>76</v>
@@ -12906,10 +12910,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12920,7 +12924,7 @@
         <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -12929,16 +12933,16 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12989,19 +12993,19 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>76</v>
@@ -13018,10 +13022,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13032,7 +13036,7 @@
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>76</v>
@@ -13041,16 +13045,16 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13101,19 +13105,19 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>76</v>
@@ -13130,10 +13134,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13144,7 +13148,7 @@
         <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>76</v>
@@ -13153,16 +13157,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13213,19 +13217,19 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
@@ -13242,10 +13246,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13256,7 +13260,7 @@
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>76</v>
@@ -13268,13 +13272,13 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13325,13 +13329,13 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>76</v>
@@ -13343,7 +13347,7 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -13354,14 +13358,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13380,16 +13384,16 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13439,7 +13443,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -13451,13 +13455,13 @@
         <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -13468,14 +13472,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13488,25 +13492,25 @@
         <v>76</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -13555,7 +13559,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -13567,13 +13571,13 @@
         <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -13584,10 +13588,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13595,10 +13599,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>76</v>
@@ -13607,16 +13611,16 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13667,19 +13671,19 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>76</v>
@@ -13696,10 +13700,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13710,7 +13714,7 @@
         <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>76</v>
@@ -13719,16 +13723,16 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13779,19 +13783,19 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>76</v>
@@ -13808,10 +13812,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13822,7 +13826,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -13831,19 +13835,19 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13893,19 +13897,19 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>76</v>
@@ -13922,10 +13926,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13936,7 +13940,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>76</v>
@@ -13945,19 +13949,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14007,19 +14011,19 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>76</v>
@@ -14036,10 +14040,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14050,7 +14054,7 @@
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
@@ -14059,19 +14063,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14121,13 +14125,13 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>76</v>
@@ -14150,10 +14154,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14164,7 +14168,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>76</v>
@@ -14173,22 +14177,22 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>76</v>
@@ -14237,19 +14241,19 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -465,6 +469,10 @@
     <t>open</t>
   </si>
   <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>Bundle.entry.id</t>
   </si>
   <si>
@@ -734,10 +742,6 @@
   </si>
   <si>
     <t>Acknowledgement of asynchronous operation request.</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry:operationOutcome.id</t>
@@ -1432,16 +1436,16 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>36</v>
@@ -1449,10 +1453,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1463,7 +1467,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1472,19 +1476,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1534,13 +1538,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1563,10 +1567,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1577,7 +1581,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1586,16 +1590,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1646,19 +1650,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1675,10 +1679,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1689,28 +1693,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1760,19 +1764,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1789,10 +1793,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1803,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1815,16 +1819,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1850,13 +1854,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1874,19 +1878,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1903,10 +1907,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1917,7 +1921,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1926,19 +1930,19 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1988,19 +1992,19 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>36</v>
@@ -2009,18 +2013,18 @@
         <v>36</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2028,31 +2032,31 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2060,7 +2064,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>36</v>
@@ -2078,13 +2082,13 @@
         <v>36</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>36</v>
@@ -2102,19 +2106,19 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>36</v>
@@ -2126,15 +2130,15 @@
         <v>36</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2145,7 +2149,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>36</v>
@@ -2154,19 +2158,19 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2216,19 +2220,19 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
@@ -2237,18 +2241,18 @@
         <v>36</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2259,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>36</v>
@@ -2268,19 +2272,19 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2330,19 +2334,19 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>36</v>
@@ -2359,10 +2363,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2382,19 +2386,19 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2444,7 +2448,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2456,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>36</v>
@@ -2473,10 +2477,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2487,7 +2491,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2499,13 +2503,13 @@
         <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2556,13 +2560,13 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
@@ -2574,7 +2578,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>36</v>
@@ -2585,14 +2589,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2611,16 +2615,16 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2670,7 +2674,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2682,13 +2686,13 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>36</v>
@@ -2699,14 +2703,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2719,25 +2723,25 @@
         <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>36</v>
@@ -2786,7 +2790,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2798,13 +2802,13 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>36</v>
@@ -2815,10 +2819,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2826,10 +2830,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
@@ -2838,16 +2842,16 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2898,19 +2902,19 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>36</v>
@@ -2927,10 +2931,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2938,10 +2942,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2950,16 +2954,16 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3010,19 +3014,19 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>36</v>
@@ -3039,10 +3043,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3050,10 +3054,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -3062,16 +3066,16 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3110,19 +3114,19 @@
         <v>36</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3134,7 +3138,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>36</v>
@@ -3151,10 +3155,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3165,7 +3169,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3177,13 +3181,13 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3234,13 +3238,13 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
@@ -3252,7 +3256,7 @@
         <v>36</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>36</v>
@@ -3263,14 +3267,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3289,16 +3293,16 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3348,7 +3352,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3360,13 +3364,13 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>36</v>
@@ -3377,14 +3381,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3397,25 +3401,25 @@
         <v>36</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>36</v>
@@ -3464,7 +3468,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -3476,13 +3480,13 @@
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>36</v>
@@ -3493,10 +3497,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3516,16 +3520,16 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3576,7 +3580,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3588,7 +3592,7 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
@@ -3605,10 +3609,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3616,31 +3620,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3690,19 +3694,19 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>36</v>
@@ -3719,10 +3723,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3730,28 +3734,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3802,13 +3806,13 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>36</v>
@@ -3831,10 +3835,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3845,7 +3849,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3854,16 +3858,16 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3914,19 +3918,19 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
@@ -3943,10 +3947,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3957,7 +3961,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -3969,13 +3973,13 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4026,13 +4030,13 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
@@ -4044,7 +4048,7 @@
         <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>36</v>
@@ -4055,14 +4059,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4081,16 +4085,16 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4140,7 +4144,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -4152,13 +4156,13 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>36</v>
@@ -4169,14 +4173,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4189,25 +4193,25 @@
         <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -4256,7 +4260,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -4268,13 +4272,13 @@
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>36</v>
@@ -4285,10 +4289,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4299,7 +4303,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>36</v>
@@ -4308,19 +4312,19 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4346,13 +4350,13 @@
         <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -4370,19 +4374,19 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>36</v>
@@ -4399,10 +4403,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4413,7 +4417,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4422,19 +4426,19 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4484,19 +4488,19 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>36</v>
@@ -4513,10 +4517,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4527,25 +4531,25 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4596,19 +4600,19 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>36</v>
@@ -4625,10 +4629,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4639,7 +4643,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>36</v>
@@ -4651,13 +4655,13 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4708,13 +4712,13 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
@@ -4726,7 +4730,7 @@
         <v>36</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>36</v>
@@ -4737,14 +4741,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4763,16 +4767,16 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4822,7 +4826,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4834,13 +4838,13 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>36</v>
@@ -4851,14 +4855,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4871,25 +4875,25 @@
         <v>36</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>36</v>
@@ -4938,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -4950,13 +4954,13 @@
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>36</v>
@@ -4967,10 +4971,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4978,10 +4982,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -4990,16 +4994,16 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5026,13 +5030,13 @@
         <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>36</v>
@@ -5050,19 +5054,19 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
@@ -5079,10 +5083,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5090,10 +5094,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -5102,19 +5106,19 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5164,19 +5168,19 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>36</v>
@@ -5193,10 +5197,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5207,7 +5211,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -5216,16 +5220,16 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5276,19 +5280,19 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>36</v>
@@ -5305,10 +5309,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5319,7 +5323,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>36</v>
@@ -5328,16 +5332,16 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5388,19 +5392,19 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>36</v>
@@ -5417,10 +5421,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5431,7 +5435,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5440,16 +5444,16 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5500,19 +5504,19 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
@@ -5529,10 +5533,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5543,7 +5547,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -5552,16 +5556,16 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5612,19 +5616,19 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
@@ -5641,10 +5645,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5655,7 +5659,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
@@ -5664,16 +5668,16 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5724,19 +5728,19 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
@@ -5753,10 +5757,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5767,7 +5771,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>36</v>
@@ -5779,13 +5783,13 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5836,13 +5840,13 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
@@ -5854,7 +5858,7 @@
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -5865,14 +5869,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5891,16 +5895,16 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5950,7 +5954,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -5962,13 +5966,13 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>36</v>
@@ -5979,14 +5983,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5999,25 +6003,25 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6066,7 +6070,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -6078,13 +6082,13 @@
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
@@ -6095,10 +6099,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6106,10 +6110,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -6118,16 +6122,16 @@
         <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6178,19 +6182,19 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
@@ -6207,10 +6211,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6221,7 +6225,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -6230,16 +6234,16 @@
         <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6290,19 +6294,19 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>36</v>
@@ -6319,10 +6323,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6333,7 +6337,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6342,19 +6346,19 @@
         <v>36</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6404,19 +6408,19 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
@@ -6433,10 +6437,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6447,7 +6451,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>36</v>
@@ -6456,19 +6460,19 @@
         <v>36</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6518,19 +6522,19 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -6547,10 +6551,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6561,7 +6565,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>36</v>
@@ -6570,19 +6574,19 @@
         <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6632,13 +6636,13 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>36</v>
@@ -6661,41 +6665,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6746,7 +6750,7 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -6758,7 +6762,7 @@
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
@@ -6775,10 +6779,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6789,7 +6793,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -6801,13 +6805,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6858,13 +6862,13 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
@@ -6876,7 +6880,7 @@
         <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -6887,14 +6891,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6913,16 +6917,16 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6972,7 +6976,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -6984,13 +6988,13 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
@@ -7001,14 +7005,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7021,25 +7025,25 @@
         <v>36</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
@@ -7088,7 +7092,7 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -7100,13 +7104,13 @@
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
@@ -7117,10 +7121,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7140,16 +7144,16 @@
         <v>36</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7200,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -7212,7 +7216,7 @@
         <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>36</v>
@@ -7229,10 +7233,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7243,7 +7247,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>36</v>
@@ -7252,19 +7256,19 @@
         <v>36</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7314,19 +7318,19 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>36</v>
@@ -7343,10 +7347,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7357,7 +7361,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>36</v>
@@ -7366,16 +7370,16 @@
         <v>36</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7426,13 +7430,13 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>36</v>
@@ -7455,10 +7459,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7469,7 +7473,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>36</v>
@@ -7478,16 +7482,16 @@
         <v>36</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7538,19 +7542,19 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>36</v>
@@ -7567,10 +7571,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7581,7 +7585,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>36</v>
@@ -7593,13 +7597,13 @@
         <v>36</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7650,13 +7654,13 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>36</v>
@@ -7668,7 +7672,7 @@
         <v>36</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
@@ -7679,14 +7683,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7705,16 +7709,16 @@
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7764,7 +7768,7 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
@@ -7776,13 +7780,13 @@
         <v>36</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>36</v>
@@ -7793,14 +7797,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7813,25 +7817,25 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>36</v>
@@ -7880,7 +7884,7 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -7892,13 +7896,13 @@
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
@@ -7909,10 +7913,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7923,7 +7927,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>36</v>
@@ -7932,19 +7936,19 @@
         <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7970,13 +7974,13 @@
         <v>36</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>36</v>
@@ -7994,19 +7998,19 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>36</v>
@@ -8023,10 +8027,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8037,7 +8041,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>36</v>
@@ -8046,19 +8050,19 @@
         <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8108,19 +8112,19 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>36</v>
@@ -8137,10 +8141,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8151,7 +8155,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>36</v>
@@ -8160,16 +8164,16 @@
         <v>36</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8220,19 +8224,19 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>36</v>
@@ -8249,10 +8253,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8263,7 +8267,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>36</v>
@@ -8275,13 +8279,13 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8332,13 +8336,13 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>36</v>
@@ -8350,7 +8354,7 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>36</v>
@@ -8361,14 +8365,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8387,16 +8391,16 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8446,7 +8450,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
@@ -8458,13 +8462,13 @@
         <v>36</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>36</v>
@@ -8475,14 +8479,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8495,25 +8499,25 @@
         <v>36</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>36</v>
@@ -8562,7 +8566,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -8574,13 +8578,13 @@
         <v>36</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>36</v>
@@ -8591,10 +8595,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8602,10 +8606,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>36</v>
@@ -8614,16 +8618,16 @@
         <v>36</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8650,13 +8654,13 @@
         <v>36</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>36</v>
@@ -8674,19 +8678,19 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>36</v>
@@ -8703,10 +8707,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8714,10 +8718,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>36</v>
@@ -8726,19 +8730,19 @@
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8788,19 +8792,19 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>36</v>
@@ -8817,10 +8821,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8831,7 +8835,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -8840,16 +8844,16 @@
         <v>36</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8900,19 +8904,19 @@
         <v>36</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>36</v>
@@ -8929,10 +8933,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8943,7 +8947,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>36</v>
@@ -8952,16 +8956,16 @@
         <v>36</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9012,19 +9016,19 @@
         <v>36</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>36</v>
@@ -9041,10 +9045,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9055,7 +9059,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>36</v>
@@ -9064,16 +9068,16 @@
         <v>36</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9124,19 +9128,19 @@
         <v>36</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>36</v>
@@ -9153,10 +9157,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9167,7 +9171,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>36</v>
@@ -9176,16 +9180,16 @@
         <v>36</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9236,19 +9240,19 @@
         <v>36</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>36</v>
@@ -9265,10 +9269,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9279,7 +9283,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>36</v>
@@ -9288,16 +9292,16 @@
         <v>36</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9348,19 +9352,19 @@
         <v>36</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>36</v>
@@ -9377,10 +9381,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9391,7 +9395,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>36</v>
@@ -9403,13 +9407,13 @@
         <v>36</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9460,13 +9464,13 @@
         <v>36</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>36</v>
@@ -9478,7 +9482,7 @@
         <v>36</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>36</v>
@@ -9489,14 +9493,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9515,16 +9519,16 @@
         <v>36</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9574,7 +9578,7 @@
         <v>36</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -9586,13 +9590,13 @@
         <v>36</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>36</v>
@@ -9603,14 +9607,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9623,25 +9627,25 @@
         <v>36</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>36</v>
@@ -9690,7 +9694,7 @@
         <v>36</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -9702,13 +9706,13 @@
         <v>36</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>36</v>
@@ -9719,10 +9723,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9730,10 +9734,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>36</v>
@@ -9742,16 +9746,16 @@
         <v>36</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9802,19 +9806,19 @@
         <v>36</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>36</v>
@@ -9831,10 +9835,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9845,7 +9849,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>36</v>
@@ -9854,16 +9858,16 @@
         <v>36</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9914,19 +9918,19 @@
         <v>36</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>36</v>
@@ -9943,10 +9947,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9957,7 +9961,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>36</v>
@@ -9966,19 +9970,19 @@
         <v>36</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10028,19 +10032,19 @@
         <v>36</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>36</v>
@@ -10057,10 +10061,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10071,7 +10075,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>36</v>
@@ -10080,19 +10084,19 @@
         <v>36</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10142,19 +10146,19 @@
         <v>36</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>36</v>
@@ -10171,10 +10175,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10185,7 +10189,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>36</v>
@@ -10194,19 +10198,19 @@
         <v>36</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10256,13 +10260,13 @@
         <v>36</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>36</v>
@@ -10285,41 +10289,41 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10370,7 +10374,7 @@
         <v>36</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -10382,7 +10386,7 @@
         <v>36</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>36</v>
@@ -10399,10 +10403,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10413,7 +10417,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>36</v>
@@ -10425,13 +10429,13 @@
         <v>36</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10482,13 +10486,13 @@
         <v>36</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>36</v>
@@ -10500,7 +10504,7 @@
         <v>36</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>36</v>
@@ -10511,14 +10515,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10537,16 +10541,16 @@
         <v>36</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10596,7 +10600,7 @@
         <v>36</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
@@ -10608,13 +10612,13 @@
         <v>36</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>36</v>
@@ -10625,14 +10629,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10645,25 +10649,25 @@
         <v>36</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>36</v>
@@ -10712,7 +10716,7 @@
         <v>36</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
@@ -10724,13 +10728,13 @@
         <v>36</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>36</v>
@@ -10741,10 +10745,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10764,16 +10768,16 @@
         <v>36</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10824,7 +10828,7 @@
         <v>36</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
@@ -10836,7 +10840,7 @@
         <v>36</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>36</v>
@@ -10853,10 +10857,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10867,7 +10871,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>36</v>
@@ -10876,19 +10880,19 @@
         <v>36</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10938,19 +10942,19 @@
         <v>36</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>36</v>
@@ -10967,10 +10971,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10981,7 +10985,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>36</v>
@@ -10993,16 +10997,16 @@
         <v>36</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11052,13 +11056,13 @@
         <v>36</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>36</v>
@@ -11067,10 +11071,10 @@
         <v>36</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>36</v>
@@ -11081,10 +11085,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11095,7 +11099,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>36</v>
@@ -11104,16 +11108,16 @@
         <v>36</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11164,19 +11168,19 @@
         <v>36</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>36</v>
@@ -11193,10 +11197,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11207,7 +11211,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>36</v>
@@ -11219,13 +11223,13 @@
         <v>36</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11276,13 +11280,13 @@
         <v>36</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>36</v>
@@ -11294,7 +11298,7 @@
         <v>36</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>36</v>
@@ -11305,14 +11309,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11331,16 +11335,16 @@
         <v>36</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11390,7 +11394,7 @@
         <v>36</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>37</v>
@@ -11402,13 +11406,13 @@
         <v>36</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>36</v>
@@ -11419,14 +11423,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11439,25 +11443,25 @@
         <v>36</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>36</v>
@@ -11506,7 +11510,7 @@
         <v>36</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>37</v>
@@ -11518,13 +11522,13 @@
         <v>36</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>36</v>
@@ -11535,10 +11539,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11549,7 +11553,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>36</v>
@@ -11558,19 +11562,19 @@
         <v>36</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11596,13 +11600,13 @@
         <v>36</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>36</v>
@@ -11620,19 +11624,19 @@
         <v>36</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>36</v>
@@ -11649,10 +11653,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11663,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>36</v>
@@ -11672,19 +11676,19 @@
         <v>36</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11734,19 +11738,19 @@
         <v>36</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>36</v>
@@ -11763,10 +11767,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11777,7 +11781,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>36</v>
@@ -11786,16 +11790,16 @@
         <v>36</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11846,19 +11850,19 @@
         <v>36</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>36</v>
@@ -11875,10 +11879,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11889,7 +11893,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>36</v>
@@ -11901,13 +11905,13 @@
         <v>36</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11958,13 +11962,13 @@
         <v>36</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>36</v>
@@ -11976,7 +11980,7 @@
         <v>36</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>36</v>
@@ -11987,14 +11991,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12013,16 +12017,16 @@
         <v>36</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12072,7 +12076,7 @@
         <v>36</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>37</v>
@@ -12084,13 +12088,13 @@
         <v>36</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>36</v>
@@ -12101,14 +12105,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12121,25 +12125,25 @@
         <v>36</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>36</v>
@@ -12188,7 +12192,7 @@
         <v>36</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>37</v>
@@ -12200,13 +12204,13 @@
         <v>36</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>36</v>
@@ -12217,10 +12221,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12228,10 +12232,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>36</v>
@@ -12240,16 +12244,16 @@
         <v>36</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12276,13 +12280,13 @@
         <v>36</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>36</v>
@@ -12300,19 +12304,19 @@
         <v>36</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>36</v>
@@ -12329,10 +12333,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12340,10 +12344,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>36</v>
@@ -12352,19 +12356,19 @@
         <v>36</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12414,19 +12418,19 @@
         <v>36</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>36</v>
@@ -12443,10 +12447,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12457,7 +12461,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>36</v>
@@ -12466,16 +12470,16 @@
         <v>36</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12526,19 +12530,19 @@
         <v>36</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>36</v>
@@ -12555,10 +12559,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12569,7 +12573,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>36</v>
@@ -12578,16 +12582,16 @@
         <v>36</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12638,19 +12642,19 @@
         <v>36</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>36</v>
@@ -12667,10 +12671,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12681,7 +12685,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>36</v>
@@ -12690,16 +12694,16 @@
         <v>36</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12750,19 +12754,19 @@
         <v>36</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>36</v>
@@ -12779,10 +12783,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12793,7 +12797,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>36</v>
@@ -12802,16 +12806,16 @@
         <v>36</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12862,19 +12866,19 @@
         <v>36</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>36</v>
@@ -12891,10 +12895,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12905,7 +12909,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>36</v>
@@ -12914,16 +12918,16 @@
         <v>36</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12974,19 +12978,19 @@
         <v>36</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>36</v>
@@ -13003,10 +13007,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13017,7 +13021,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>36</v>
@@ -13029,13 +13033,13 @@
         <v>36</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13086,13 +13090,13 @@
         <v>36</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>36</v>
@@ -13104,7 +13108,7 @@
         <v>36</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>36</v>
@@ -13115,14 +13119,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13141,16 +13145,16 @@
         <v>36</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13200,7 +13204,7 @@
         <v>36</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>37</v>
@@ -13212,13 +13216,13 @@
         <v>36</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>36</v>
@@ -13229,14 +13233,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13249,25 +13253,25 @@
         <v>36</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>36</v>
@@ -13316,7 +13320,7 @@
         <v>36</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>37</v>
@@ -13328,13 +13332,13 @@
         <v>36</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>36</v>
@@ -13345,10 +13349,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13356,10 +13360,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>36</v>
@@ -13368,16 +13372,16 @@
         <v>36</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13428,19 +13432,19 @@
         <v>36</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>36</v>
@@ -13457,10 +13461,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13471,7 +13475,7 @@
         <v>37</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>36</v>
@@ -13480,16 +13484,16 @@
         <v>36</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13540,19 +13544,19 @@
         <v>36</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>36</v>
@@ -13569,10 +13573,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13583,7 +13587,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>36</v>
@@ -13592,19 +13596,19 @@
         <v>36</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13654,19 +13658,19 @@
         <v>36</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>36</v>
@@ -13683,10 +13687,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13697,7 +13701,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>36</v>
@@ -13706,19 +13710,19 @@
         <v>36</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13768,19 +13772,19 @@
         <v>36</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>36</v>
@@ -13797,10 +13801,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13811,7 +13815,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>36</v>
@@ -13820,19 +13824,19 @@
         <v>36</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -13882,13 +13886,13 @@
         <v>36</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>36</v>
@@ -13911,10 +13915,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13925,7 +13929,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>36</v>
@@ -13934,22 +13938,22 @@
         <v>36</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>36</v>
@@ -13998,19 +14002,19 @@
         <v>36</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>36</v>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-async-ack-response-bundle.xlsx
+++ b/StructureDefinition-bc-async-ack-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
